--- a/static/HSK5.xlsx
+++ b/static/HSK5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/git/vocabApp/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/Box/IBM Systems/git/vocabApp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A44FCF-8220-4B4E-9026-9934AAB81D73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE42F0-0FDC-C244-A234-EB9D067F5335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21915,8 +21915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2478" workbookViewId="0">
-      <selection activeCell="A2502" sqref="A2502:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
